--- a/data/Input.xlsx.xlsx
+++ b/data/Input.xlsx.xlsx
@@ -4,15 +4,56 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ValidLoginLogout" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>loginpage</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Login</t>
+  </si>
+  <si>
+    <t>acti-TIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +83,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,24 +399,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/Input.xlsx.xlsx
+++ b/data/Input.xlsx.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginLogout" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="VerifyProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -39,27 +39,35 @@
     <t>actiTIME - Login</t>
   </si>
   <si>
-    <t>acti-TIME - Enter Time-Track</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>actiTIME 2016.1</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,9 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +412,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -412,16 +422,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -433,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -448,30 +458,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -479,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -501,12 +511,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>